--- a/projects/SEB_calibration_RepeatRun_2013.xlsx
+++ b/projects/SEB_calibration_RepeatRun_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="772">
   <si>
     <t>type</t>
   </si>
@@ -2347,6 +2347,15 @@
   </si>
   <si>
     <t>SEB4 baseboard RepeatRun 2013</t>
+  </si>
+  <si>
+    <t>Failed F Value</t>
+  </si>
+  <si>
+    <t>Debug Messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 or 0 </t>
   </si>
 </sst>
 </file>
@@ -4376,7 +4385,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4500,6 +4509,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1839">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6641,8 +6651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6887,15 +6897,25 @@
       <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="B23" s="28">
+        <v>1E+18</v>
+      </c>
       <c r="C23" s="29"/>
       <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="B24" s="29">
+        <v>0</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>771</v>
+      </c>
       <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">

--- a/projects/SEB_calibration_RepeatRun_2013.xlsx
+++ b/projects/SEB_calibration_RepeatRun_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$126</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -4506,10 +4506,10 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1839">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6651,7 +6651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -6913,7 +6913,7 @@
       <c r="B24" s="29">
         <v>0</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="64" t="s">
         <v>771</v>
       </c>
       <c r="D24" s="33"/>
@@ -7062,11 +7062,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z200"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7121,14 +7121,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7585,167 +7585,166 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="b">
+    <row r="23" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>750</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>753</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>753</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="b">
+      <c r="B23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="38">
+        <v>0</v>
+      </c>
+      <c r="K25" s="40">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
+        <v>100</v>
+      </c>
+      <c r="M25" s="40">
+        <v>15</v>
+      </c>
+      <c r="N25" s="40">
+        <f>(L25-K25)/6</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="O25" s="40">
         <v>1</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" s="30"/>
-    </row>
-    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>664</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="38" t="s">
+      <c r="R25" s="38" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="38">
-        <v>0</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0</v>
-      </c>
-      <c r="L26" s="40">
-        <v>100</v>
-      </c>
-      <c r="M26" s="40">
-        <v>15</v>
-      </c>
-      <c r="N26" s="40">
-        <f>(L26-K26)/6</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="O26" s="40">
+      <c r="I26" s="29">
         <v>1</v>
       </c>
-      <c r="R26" s="38" t="s">
+    </row>
+    <row r="27" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="F27" s="61"/>
+      <c r="G27" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="54">
+        <v>0</v>
+      </c>
+      <c r="K27" s="56">
+        <v>0</v>
+      </c>
+      <c r="L27" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="N27" s="56">
+        <f>(L27-K27)/6</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="O27" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="R27" s="54" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>656</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="29" t="s">
+    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>660</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>659</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>658</v>
-      </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="54">
-        <v>0</v>
-      </c>
-      <c r="K28" s="56">
-        <v>0</v>
-      </c>
-      <c r="L28" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="M28" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="N28" s="56">
-        <f>(L28-K28)/6</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="O28" s="56">
-        <v>0.01</v>
-      </c>
-      <c r="R28" s="54" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>660</v>
-      </c>
-      <c r="F29" s="61"/>
+        <v>662</v>
+      </c>
+      <c r="F29" s="62"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7758,10 +7757,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>663</v>
+        <v>69</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>662</v>
+        <v>46</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="29" t="s">
@@ -7776,10 +7775,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F31" s="62"/>
       <c r="G31" s="29" t="s">
@@ -7794,123 +7793,132 @@
         <v>21</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F32" s="62"/>
       <c r="G32" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="29">
+        <v>1</v>
+      </c>
+      <c r="P32" s="30"/>
+    </row>
+    <row r="33" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="62"/>
+      <c r="G34" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="Q34" s="37"/>
+    </row>
+    <row r="35" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="62"/>
+      <c r="G35" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="29">
+      <c r="I35" s="50">
+        <v>0</v>
+      </c>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52">
+        <v>-40</v>
+      </c>
+      <c r="L35" s="52">
+        <v>40</v>
+      </c>
+      <c r="M35" s="52">
+        <v>0</v>
+      </c>
+      <c r="N35" s="52">
+        <f>(L35-K35)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O35" s="52">
         <v>1</v>
       </c>
-      <c r="P33" s="30"/>
-    </row>
-    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="Q35" s="37"/>
-    </row>
-    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>640</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>44</v>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="50" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="F36" s="62"/>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="50">
-        <v>0</v>
-      </c>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52">
-        <v>-40</v>
-      </c>
-      <c r="L36" s="52">
-        <v>40</v>
-      </c>
-      <c r="M36" s="52">
-        <v>0</v>
-      </c>
-      <c r="N36" s="52">
-        <f>(L36-K36)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O36" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="50" t="s">
-        <v>751</v>
-      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="Q36" s="37"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
@@ -7918,11 +7926,11 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="42" t="s">
-        <v>45</v>
+      <c r="D37" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F37" s="62"/>
       <c r="G37" s="29" t="s">
@@ -7946,14 +7954,14 @@
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F38" s="62"/>
       <c r="G38" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29">
@@ -7973,18 +7981,18 @@
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="29">
-        <v>0</v>
+      <c r="I39" s="29" t="b">
+        <v>1</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -8000,18 +8008,18 @@
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F40" s="62"/>
       <c r="G40" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="29" t="b">
-        <v>1</v>
+      <c r="I40" s="29">
+        <v>15</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -8027,18 +8035,18 @@
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -8054,18 +8062,18 @@
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F42" s="62"/>
       <c r="G42" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -8074,123 +8082,117 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="62"/>
-      <c r="G43" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29">
+    <row r="43" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="Q43" s="37"/>
-    </row>
-    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="b">
+      <c r="B43" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="62"/>
+      <c r="G44" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I45" s="38">
+        <v>0</v>
+      </c>
+      <c r="J45" s="41"/>
+      <c r="K45" s="40">
+        <v>-80</v>
+      </c>
+      <c r="L45" s="40">
+        <v>80</v>
+      </c>
+      <c r="M45" s="40">
+        <v>0</v>
+      </c>
+      <c r="N45" s="40">
+        <f>(L45-K45)/6</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="O45" s="40">
         <v>1</v>
       </c>
-      <c r="B44" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>641</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="38" t="s">
+      <c r="R45" s="38" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="62"/>
+      <c r="G46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="I46" s="38">
-        <v>0</v>
-      </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="40">
-        <v>-80</v>
-      </c>
-      <c r="L46" s="40">
-        <v>80</v>
-      </c>
-      <c r="M46" s="40">
-        <v>0</v>
-      </c>
-      <c r="N46" s="40">
-        <f>(L46-K46)/6</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="O46" s="40">
-        <v>1</v>
-      </c>
-      <c r="R46" s="38" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I46" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="62"/>
+        <v>48</v>
+      </c>
+      <c r="F47" s="61"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
@@ -8206,17 +8208,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F48" s="61"/>
       <c r="G48" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8227,19 +8229,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F49" s="61"/>
       <c r="G49" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I49" s="29">
+        <v>61</v>
+      </c>
+      <c r="I49" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8248,17 +8247,20 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F50" s="61"/>
       <c r="G50" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I50" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8266,141 +8268,138 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F51" s="61"/>
       <c r="G51" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I51" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="62"/>
+      <c r="G52" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H52" s="29" t="s">
         <v>646</v>
       </c>
-      <c r="I51" s="29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="61"/>
-      <c r="G52" s="29" t="s">
+      <c r="I52" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="62"/>
+      <c r="G54" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H55" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I52" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="62"/>
-      <c r="G53" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I53" s="29">
+      <c r="I55" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="J55" s="41"/>
+      <c r="K55" s="40">
+        <v>0.78</v>
+      </c>
+      <c r="L55" s="40">
+        <v>0.98</v>
+      </c>
+      <c r="M55" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="N55" s="40">
+        <f>(L55-K55)/6</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="O55" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="44" t="s">
-        <v>694</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>695</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>695</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R55" s="38" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="38" t="s">
-        <v>696</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I56" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="J56" s="41"/>
-      <c r="K56" s="40">
-        <v>0.78</v>
-      </c>
-      <c r="L56" s="40">
-        <v>0.98</v>
-      </c>
-      <c r="M56" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="N56" s="40">
-        <f>(L56-K56)/6</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="O56" s="40">
-        <v>1</v>
-      </c>
-      <c r="R56" s="38" t="s">
-        <v>751</v>
+      <c r="D56" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8408,16 +8407,19 @@
         <v>21</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I57" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8426,10 +8428,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="29" t="s">
@@ -8447,40 +8449,37 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="F60" s="62"/>
       <c r="G60" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I60" s="29">
+        <v>61</v>
+      </c>
+      <c r="I60" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8489,17 +8488,20 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F61" s="62"/>
       <c r="G61" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I61" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8507,20 +8509,20 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F62" s="62"/>
       <c r="G62" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I62" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8528,120 +8530,117 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F63" s="62"/>
       <c r="G63" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I63" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>701</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="D64" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="62"/>
+      <c r="G65" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="F66" s="48"/>
+      <c r="G66" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H66" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I63" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I64" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>701</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>700</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>700</v>
-      </c>
-      <c r="E65" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J66" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I66" s="38">
+        <v>4</v>
+      </c>
+      <c r="J66" s="41"/>
+      <c r="K66" s="40">
+        <v>2</v>
+      </c>
+      <c r="L66" s="40">
+        <v>5</v>
+      </c>
+      <c r="M66" s="40">
+        <v>4</v>
+      </c>
+      <c r="N66" s="40">
+        <f>(L66-K66)/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="O66" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="R66" s="38" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>704</v>
-      </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I67" s="38">
-        <v>4</v>
-      </c>
-      <c r="J67" s="41"/>
-      <c r="K67" s="40">
-        <v>2</v>
-      </c>
-      <c r="L67" s="40">
-        <v>5</v>
-      </c>
-      <c r="M67" s="40">
-        <v>4</v>
-      </c>
-      <c r="N67" s="40">
-        <f>(L67-K67)/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="O67" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="R67" s="38" t="s">
-        <v>751</v>
+      <c r="D67" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="62"/>
+      <c r="G67" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8649,16 +8648,19 @@
         <v>21</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F68" s="62"/>
       <c r="G68" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I68" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I68" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8667,10 +8669,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F69" s="62"/>
       <c r="G69" s="29" t="s">
@@ -8688,17 +8690,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F70" s="62"/>
       <c r="G70" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8709,19 +8711,16 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F71" s="62"/>
       <c r="G71" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I71" s="29">
+        <v>61</v>
+      </c>
+      <c r="I71" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8730,17 +8729,20 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F72" s="62"/>
       <c r="G72" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I72" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8748,20 +8750,20 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F73" s="62"/>
       <c r="G73" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I73" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8769,79 +8771,99 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F74" s="62"/>
       <c r="G74" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I74" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="62"/>
+      <c r="G76" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="48"/>
+      <c r="G77" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H77" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I74" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="62"/>
-      <c r="G75" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I75" s="29">
+      <c r="I77" s="38">
+        <v>0</v>
+      </c>
+      <c r="J77" s="41"/>
+      <c r="K77" s="40">
+        <v>-20</v>
+      </c>
+      <c r="L77" s="40">
+        <v>14</v>
+      </c>
+      <c r="M77" s="40">
+        <v>0</v>
+      </c>
+      <c r="N77" s="40">
+        <f>(L77-K77)/6</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="O77" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F77" s="62"/>
-      <c r="G77" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J77" s="29" t="s">
-        <v>416</v>
+      <c r="R77" s="38" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8849,10 +8871,10 @@
         <v>21</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>243</v>
+        <v>707</v>
       </c>
       <c r="F78" s="48"/>
       <c r="G78" s="38" t="s">
@@ -8866,17 +8888,17 @@
       </c>
       <c r="J78" s="41"/>
       <c r="K78" s="40">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L78" s="40">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M78" s="40">
         <v>0</v>
       </c>
       <c r="N78" s="40">
         <f>(L78-K78)/6</f>
-        <v>5.666666666666667</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="O78" s="40">
         <v>1</v>
@@ -8885,45 +8907,22 @@
         <v>751</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B79" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="E79" s="38" t="s">
-        <v>707</v>
-      </c>
-      <c r="F79" s="48"/>
-      <c r="G79" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I79" s="38">
-        <v>0</v>
-      </c>
-      <c r="J79" s="41"/>
-      <c r="K79" s="40">
-        <v>-25</v>
-      </c>
-      <c r="L79" s="40">
-        <v>30</v>
-      </c>
-      <c r="M79" s="40">
-        <v>0</v>
-      </c>
-      <c r="N79" s="40">
-        <f>(L79-K79)/6</f>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="O79" s="40">
-        <v>1</v>
-      </c>
-      <c r="R79" s="38" t="s">
-        <v>751</v>
+      <c r="D79" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="62"/>
+      <c r="G79" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8931,16 +8930,19 @@
         <v>21</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F80" s="62"/>
       <c r="G80" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I80" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I80" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8949,10 +8951,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F81" s="62"/>
       <c r="G81" s="29" t="s">
@@ -8970,40 +8972,37 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F82" s="62"/>
       <c r="G82" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="62"/>
+        <v>52</v>
+      </c>
+      <c r="F83" s="61"/>
       <c r="G83" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H83" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I83" s="29">
+        <v>61</v>
+      </c>
+      <c r="I83" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9012,17 +9011,20 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F84" s="61"/>
       <c r="G84" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I84" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9030,20 +9032,20 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F85" s="61"/>
       <c r="G85" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I85" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9051,58 +9053,78 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F86" s="61"/>
       <c r="G86" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I86" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="D87" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="E87" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="48"/>
+      <c r="G88" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="I86" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="61"/>
-      <c r="G87" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I87" s="29">
+      <c r="H88" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I88" s="38">
+        <v>0</v>
+      </c>
+      <c r="J88" s="41"/>
+      <c r="K88" s="40">
+        <v>-6</v>
+      </c>
+      <c r="L88" s="40">
+        <v>2</v>
+      </c>
+      <c r="M88" s="40">
+        <v>0</v>
+      </c>
+      <c r="N88" s="40">
+        <f>(L88-K88)/6</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O88" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="D88" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="E88" s="44" t="s">
-        <v>66</v>
+      <c r="R88" s="38" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9110,10 +9132,10 @@
         <v>21</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F89" s="48"/>
       <c r="G89" s="38" t="s">
@@ -9130,14 +9152,14 @@
         <v>-6</v>
       </c>
       <c r="L89" s="40">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M89" s="40">
         <v>0</v>
       </c>
       <c r="N89" s="40">
         <f>(L89-K89)/6</f>
-        <v>1.3333333333333333</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="O89" s="40">
         <v>1</v>
@@ -9146,111 +9168,113 @@
         <v>751</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="38" t="s">
-        <v>654</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="F90" s="48"/>
-      <c r="G90" s="38" t="s">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="61"/>
+      <c r="G90" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="E91" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="44"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+    </row>
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="38"/>
+      <c r="B92" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="38" t="s">
-        <v>653</v>
-      </c>
-      <c r="I90" s="38">
-        <v>0</v>
-      </c>
-      <c r="J90" s="41"/>
-      <c r="K90" s="40">
-        <v>-6</v>
-      </c>
-      <c r="L90" s="40">
-        <v>3.9</v>
-      </c>
-      <c r="M90" s="40">
-        <v>0</v>
-      </c>
-      <c r="N90" s="40">
-        <f>(L90-K90)/6</f>
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="O90" s="40">
+      <c r="H92" s="48"/>
+      <c r="I92" s="48">
         <v>1</v>
       </c>
-      <c r="R90" s="38" t="s">
+      <c r="J92" s="48"/>
+      <c r="K92" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="L92" s="48">
+        <v>4.5</v>
+      </c>
+      <c r="M92" s="40">
+        <v>1.75</v>
+      </c>
+      <c r="N92" s="38">
+        <f>1.5/6</f>
+        <v>0.25</v>
+      </c>
+      <c r="O92" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B91" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F91" s="61"/>
-      <c r="G91" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I91" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B92" s="47" t="s">
-        <v>682</v>
-      </c>
-      <c r="C92" s="47" t="s">
-        <v>683</v>
-      </c>
-      <c r="D92" s="47" t="s">
-        <v>683</v>
-      </c>
-      <c r="E92" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
-    </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="38"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C93" s="48"/>
       <c r="D93" s="48" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E93" s="48" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F93" s="48"/>
       <c r="G93" s="48" t="s">
@@ -9262,7 +9286,7 @@
       </c>
       <c r="J93" s="48"/>
       <c r="K93" s="48">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L93" s="48">
         <v>4.5</v>
@@ -9270,8 +9294,7 @@
       <c r="M93" s="40">
         <v>1.75</v>
       </c>
-      <c r="N93" s="38">
-        <f>1.5/6</f>
+      <c r="N93" s="48">
         <v>0.25</v>
       </c>
       <c r="O93" s="48">
@@ -9290,10 +9313,10 @@
       </c>
       <c r="C94" s="48"/>
       <c r="D94" s="48" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E94" s="48" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F94" s="48"/>
       <c r="G94" s="48" t="s">
@@ -9305,110 +9328,111 @@
       </c>
       <c r="J94" s="48"/>
       <c r="K94" s="48">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L94" s="48">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M94" s="40">
         <v>1.75</v>
       </c>
-      <c r="N94" s="48">
+      <c r="N94" s="40">
         <v>0.25</v>
       </c>
-      <c r="O94" s="48">
+      <c r="O94" s="40">
         <v>0.1</v>
       </c>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="40"/>
       <c r="R94" s="38" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="48"/>
-      <c r="B95" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48" t="s">
-        <v>680</v>
-      </c>
-      <c r="E95" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48" t="s">
+      <c r="T94" s="30"/>
+    </row>
+    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="D95" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="E95" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="44"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="44"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="38"/>
+      <c r="B96" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="E96" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48">
+      <c r="H96" s="48"/>
+      <c r="I96" s="48">
         <v>1</v>
       </c>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48">
+      <c r="J96" s="48"/>
+      <c r="K96" s="48">
         <v>0.5</v>
       </c>
-      <c r="L95" s="48">
-        <v>3</v>
-      </c>
-      <c r="M95" s="40">
+      <c r="L96" s="48">
+        <v>4</v>
+      </c>
+      <c r="M96" s="40">
         <v>1.75</v>
       </c>
-      <c r="N95" s="40">
+      <c r="N96" s="38">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O95" s="40">
+      <c r="O96" s="48">
         <v>0.1</v>
       </c>
-      <c r="P95" s="40"/>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="38" t="s">
+      <c r="P96" s="38"/>
+      <c r="Q96" s="38"/>
+      <c r="R96" s="38" t="s">
         <v>751</v>
       </c>
-      <c r="T95" s="30"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="47" t="s">
-        <v>684</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="D96" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="E96" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="44"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
-      <c r="L96" s="47"/>
-      <c r="M96" s="44"/>
-      <c r="N96" s="44"/>
-      <c r="O96" s="44"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="44"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C97" s="48"/>
       <c r="D97" s="48" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F97" s="48"/>
       <c r="G97" s="48" t="s">
@@ -9428,8 +9452,7 @@
       <c r="M97" s="40">
         <v>1.75</v>
       </c>
-      <c r="N97" s="38">
-        <f>1.5/6</f>
+      <c r="N97" s="48">
         <v>0.25</v>
       </c>
       <c r="O97" s="48">
@@ -9448,10 +9471,10 @@
       </c>
       <c r="C98" s="48"/>
       <c r="D98" s="48" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E98" s="48" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F98" s="48"/>
       <c r="G98" s="48" t="s">
@@ -9466,186 +9489,148 @@
         <v>0.5</v>
       </c>
       <c r="L98" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M98" s="40">
         <v>1.75</v>
       </c>
-      <c r="N98" s="48">
+      <c r="N98" s="40">
         <v>0.25</v>
       </c>
-      <c r="O98" s="48">
+      <c r="O98" s="40">
         <v>0.1</v>
       </c>
-      <c r="P98" s="38"/>
-      <c r="Q98" s="38"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
       <c r="R98" s="38" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="48"/>
-      <c r="B99" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48" t="s">
-        <v>688</v>
-      </c>
-      <c r="E99" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48" t="s">
+    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="C99" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="D99" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="E99" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="E100" s="54" t="s">
+        <v>710</v>
+      </c>
+      <c r="F100" s="61"/>
+      <c r="G100" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48">
+      <c r="H100" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="I100" s="54">
         <v>1</v>
       </c>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="L99" s="48">
-        <v>3</v>
-      </c>
-      <c r="M99" s="40">
-        <v>1.75</v>
-      </c>
-      <c r="N99" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="O99" s="40">
+      <c r="J100" s="57"/>
+      <c r="K100" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="L100" s="56">
+        <v>1</v>
+      </c>
+      <c r="M100" s="56">
+        <v>0.95</v>
+      </c>
+      <c r="N100" s="56">
+        <f>(L100-K100)/6</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="O100" s="56">
         <v>0.1</v>
       </c>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="38" t="s">
+      <c r="R100" s="38" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B100" s="44" t="s">
-        <v>709</v>
-      </c>
-      <c r="C100" s="44" t="s">
-        <v>708</v>
-      </c>
-      <c r="D100" s="44" t="s">
-        <v>708</v>
-      </c>
-      <c r="E100" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="54" t="s">
-        <v>712</v>
-      </c>
-      <c r="E101" s="54" t="s">
-        <v>710</v>
-      </c>
-      <c r="F101" s="61"/>
-      <c r="G101" s="54" t="s">
+    <row r="101" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="E101" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="F101" s="48"/>
+      <c r="G101" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="54" t="s">
+      <c r="H101" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I101" s="54">
-        <v>1</v>
-      </c>
-      <c r="J101" s="57"/>
-      <c r="K101" s="56">
-        <v>0.9</v>
-      </c>
-      <c r="L101" s="56">
-        <v>1</v>
-      </c>
-      <c r="M101" s="56">
-        <v>0.95</v>
-      </c>
-      <c r="N101" s="56">
+      <c r="I101" s="38">
+        <v>1450</v>
+      </c>
+      <c r="J101" s="41"/>
+      <c r="K101" s="40">
+        <v>0</v>
+      </c>
+      <c r="L101" s="40">
+        <v>3000</v>
+      </c>
+      <c r="M101" s="40">
+        <v>1450</v>
+      </c>
+      <c r="N101" s="40">
         <f>(L101-K101)/6</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="O101" s="56">
-        <v>0.1</v>
+        <v>500</v>
+      </c>
+      <c r="O101" s="40">
+        <v>50</v>
       </c>
       <c r="R101" s="38" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="E102" s="38" t="s">
-        <v>711</v>
-      </c>
-      <c r="F102" s="48"/>
-      <c r="G102" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H102" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I102" s="38">
-        <v>1450</v>
-      </c>
-      <c r="J102" s="41"/>
-      <c r="K102" s="40">
-        <v>0</v>
-      </c>
-      <c r="L102" s="40">
-        <v>3000</v>
-      </c>
-      <c r="M102" s="40">
-        <v>1450</v>
-      </c>
-      <c r="N102" s="40">
-        <f>(L102-K102)/6</f>
-        <v>500</v>
-      </c>
-      <c r="O102" s="40">
-        <v>50</v>
-      </c>
-      <c r="R102" s="38" t="s">
-        <v>751</v>
-      </c>
+    <row r="102" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>750</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="D102" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="E102" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="35"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35"/>
+      <c r="F103" s="61"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="61"/>
+      <c r="F104" s="45"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
@@ -9685,7 +9670,6 @@
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="45"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10037,12 +10021,8 @@
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="30"/>
-      <c r="J200" s="30"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AA127"/>
+  <autoFilter ref="A2:AA126"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>

--- a/projects/SEB_calibration_RepeatRun_2013.xlsx
+++ b/projects/SEB_calibration_RepeatRun_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2298,48 +2298,9 @@
     <t>uniform</t>
   </si>
   <si>
-    <t>1.21.14</t>
-  </si>
-  <si>
     <t>CalibrationReportsEnhanced20</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Number of Runs</t>
   </si>
   <si>
@@ -2356,6 +2317,45 @@
   </si>
   <si>
     <t xml:space="preserve">1 or 0 </t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>2.2.0</t>
   </si>
 </sst>
 </file>
@@ -6651,21 +6651,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="27"/>
       <c r="C1" s="19"/>
@@ -6674,7 +6674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
@@ -6683,7 +6683,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
@@ -6705,18 +6705,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>466</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -6787,18 +6787,18 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>462</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -6855,19 +6855,19 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="30" customFormat="1">
       <c r="B20" s="25"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A21" s="11" t="s">
         <v>448</v>
       </c>
@@ -6884,9 +6884,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="30" customFormat="1">
       <c r="A22" s="29" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="B22" s="29">
         <v>30</v>
@@ -6896,9 +6896,9 @@
       </c>
       <c r="D22" s="33"/>
     </row>
-    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="30" customFormat="1">
       <c r="A23" s="30" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="B23" s="28">
         <v>1E+18</v>
@@ -6906,62 +6906,62 @@
       <c r="C23" s="29"/>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="30" customFormat="1">
       <c r="A24" s="30" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="B24" s="29">
         <v>0</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="30" customFormat="1">
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="30" customFormat="1">
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="33"/>
     </row>
-    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="30" customFormat="1">
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="30" customFormat="1">
       <c r="C28" s="29"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="30" customFormat="1">
       <c r="C29" s="29"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="30" customFormat="1">
       <c r="B30" s="29"/>
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="30" customFormat="1">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="30" customFormat="1">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="33"/>
     </row>
-    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="30" customFormat="1">
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
@@ -6974,7 +6974,7 @@
       <c r="D34" s="11"/>
       <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A37" s="11" t="s">
         <v>29</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="30" customFormat="1">
       <c r="A38" s="30" t="s">
         <v>31</v>
       </c>
@@ -7011,7 +7011,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A40" s="11" t="s">
         <v>34</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="30" t="s">
         <v>632</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="30" customFormat="1">
       <c r="B42" s="25"/>
       <c r="D42" s="2"/>
     </row>
@@ -7051,7 +7051,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7064,37 +7063,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="30" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.1640625" style="30" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="30" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="30"/>
-    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="30"/>
+    <col min="17" max="17" width="11.5" style="30" customWidth="1"/>
     <col min="18" max="18" width="23" style="30" customWidth="1"/>
     <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="20" max="20" width="46.1640625" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="30"/>
     <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="30"/>
+    <col min="25" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7130,7 +7129,7 @@
       <c r="Y1" s="65"/>
       <c r="Z1" s="65"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7147,7 +7146,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7224,7 +7223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="35" customFormat="1">
       <c r="A4" s="35" t="b">
         <v>1</v>
       </c>
@@ -7243,7 +7242,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7262,7 +7261,7 @@
       </c>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7281,7 +7280,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="B7" s="30" t="s">
         <v>21</v>
       </c>
@@ -7300,7 +7299,7 @@
       </c>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
@@ -7319,7 +7318,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="B9" s="30" t="s">
         <v>21</v>
       </c>
@@ -7338,7 +7337,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
@@ -7357,7 +7356,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="B11" s="30" t="s">
         <v>21</v>
       </c>
@@ -7376,7 +7375,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
@@ -7395,7 +7394,7 @@
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="B13" s="30" t="s">
         <v>21</v>
       </c>
@@ -7414,7 +7413,7 @@
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="35" customFormat="1">
       <c r="A14" s="35" t="b">
         <v>1</v>
       </c>
@@ -7433,7 +7432,7 @@
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7452,7 +7451,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7471,7 +7470,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7490,7 +7489,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7509,7 +7508,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7528,7 +7527,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7547,7 +7546,7 @@
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7566,7 +7565,7 @@
       </c>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7585,7 +7584,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="43" customFormat="1">
       <c r="A23" s="43" t="b">
         <v>1</v>
       </c>
@@ -7602,7 +7601,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="29" customFormat="1">
       <c r="B24" s="29" t="s">
         <v>21</v>
       </c>
@@ -7624,7 +7623,7 @@
       </c>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B25" s="38" t="s">
         <v>22</v>
       </c>
@@ -7661,7 +7660,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="29" customFormat="1">
       <c r="B26" s="29" t="s">
         <v>21</v>
       </c>
@@ -7679,7 +7678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="54" customFormat="1">
       <c r="B27" s="54" t="s">
         <v>21</v>
       </c>
@@ -7716,7 +7715,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="29" customFormat="1">
       <c r="B28" s="29" t="s">
         <v>21</v>
       </c>
@@ -7734,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
@@ -7752,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B30" s="29" t="s">
         <v>21</v>
       </c>
@@ -7770,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B31" s="29" t="s">
         <v>21</v>
       </c>
@@ -7788,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B32" s="29" t="s">
         <v>21</v>
       </c>
@@ -7807,7 +7806,7 @@
       </c>
       <c r="P32" s="30"/>
     </row>
-    <row r="33" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="44" customFormat="1">
       <c r="A33" s="44" t="b">
         <v>1</v>
       </c>
@@ -7824,7 +7823,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15">
       <c r="A34" s="29"/>
       <c r="B34" s="29" t="s">
         <v>21</v>
@@ -7854,7 +7853,7 @@
       <c r="O34" s="3"/>
       <c r="Q34" s="37"/>
     </row>
-    <row r="35" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="50" customFormat="1" ht="15">
       <c r="B35" s="50" t="s">
         <v>21</v>
       </c>
@@ -7893,7 +7892,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15">
       <c r="A36" s="29"/>
       <c r="B36" s="29" t="s">
         <v>21</v>
@@ -7920,7 +7919,7 @@
       <c r="O36" s="3"/>
       <c r="Q36" s="37"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15">
       <c r="A37" s="29"/>
       <c r="B37" s="29" t="s">
         <v>21</v>
@@ -7947,7 +7946,7 @@
       <c r="O37" s="3"/>
       <c r="Q37" s="37"/>
     </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15">
       <c r="A38" s="29"/>
       <c r="B38" s="29" t="s">
         <v>21</v>
@@ -7974,7 +7973,7 @@
       <c r="O38" s="3"/>
       <c r="Q38" s="37"/>
     </row>
-    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15">
       <c r="A39" s="29"/>
       <c r="B39" s="29" t="s">
         <v>21</v>
@@ -8001,7 +8000,7 @@
       <c r="O39" s="3"/>
       <c r="Q39" s="37"/>
     </row>
-    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15">
       <c r="A40" s="29"/>
       <c r="B40" s="29" t="s">
         <v>21</v>
@@ -8028,7 +8027,7 @@
       <c r="O40" s="3"/>
       <c r="Q40" s="37"/>
     </row>
-    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15">
       <c r="A41" s="29"/>
       <c r="B41" s="29" t="s">
         <v>21</v>
@@ -8055,7 +8054,7 @@
       <c r="O41" s="3"/>
       <c r="Q41" s="37"/>
     </row>
-    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15">
       <c r="A42" s="29"/>
       <c r="B42" s="29" t="s">
         <v>21</v>
@@ -8082,7 +8081,7 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="44" customFormat="1">
       <c r="A43" s="44" t="b">
         <v>1</v>
       </c>
@@ -8099,7 +8098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B44" s="29" t="s">
         <v>21</v>
       </c>
@@ -8120,7 +8119,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B45" s="38" t="s">
         <v>22</v>
       </c>
@@ -8161,7 +8160,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B46" s="29" t="s">
         <v>21</v>
       </c>
@@ -8182,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="29" customFormat="1">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
@@ -8203,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="29" customFormat="1">
       <c r="B48" s="29" t="s">
         <v>21</v>
       </c>
@@ -8224,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="29" customFormat="1">
       <c r="B49" s="29" t="s">
         <v>21</v>
       </c>
@@ -8242,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="29" customFormat="1">
       <c r="B50" s="29" t="s">
         <v>21</v>
       </c>
@@ -8263,7 +8262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="29" customFormat="1">
       <c r="B51" s="29" t="s">
         <v>21</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B52" s="29" t="s">
         <v>21</v>
       </c>
@@ -8305,7 +8304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="44" t="b">
         <v>1</v>
       </c>
@@ -8322,7 +8321,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B54" s="29" t="s">
         <v>21</v>
       </c>
@@ -8343,7 +8342,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B55" s="29" t="s">
         <v>21</v>
       </c>
@@ -8384,7 +8383,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="29" customFormat="1">
       <c r="B56" s="29" t="s">
         <v>21</v>
       </c>
@@ -8402,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="29" customFormat="1">
       <c r="B57" s="29" t="s">
         <v>21</v>
       </c>
@@ -8423,7 +8422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="29" customFormat="1">
       <c r="B58" s="29" t="s">
         <v>21</v>
       </c>
@@ -8444,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="29" customFormat="1">
       <c r="B59" s="29" t="s">
         <v>21</v>
       </c>
@@ -8465,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
@@ -8483,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B61" s="29" t="s">
         <v>21</v>
       </c>
@@ -8504,7 +8503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B62" s="29" t="s">
         <v>21</v>
       </c>
@@ -8525,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B63" s="29" t="s">
         <v>21</v>
       </c>
@@ -8546,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="44" t="b">
         <v>1</v>
       </c>
@@ -8563,7 +8562,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B65" s="29" t="s">
         <v>21</v>
       </c>
@@ -8584,7 +8583,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B66" s="29" t="s">
         <v>21</v>
       </c>
@@ -8625,7 +8624,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B67" s="29" t="s">
         <v>21</v>
       </c>
@@ -8643,7 +8642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B68" s="29" t="s">
         <v>21</v>
       </c>
@@ -8664,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B69" s="29" t="s">
         <v>21</v>
       </c>
@@ -8685,7 +8684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B70" s="29" t="s">
         <v>21</v>
       </c>
@@ -8706,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B71" s="29" t="s">
         <v>21</v>
       </c>
@@ -8724,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B72" s="29" t="s">
         <v>21</v>
       </c>
@@ -8745,7 +8744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B73" s="29" t="s">
         <v>21</v>
       </c>
@@ -8766,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B74" s="29" t="s">
         <v>21</v>
       </c>
@@ -8787,7 +8786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="44" t="b">
         <v>1</v>
       </c>
@@ -8804,7 +8803,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B76" s="29" t="s">
         <v>21</v>
       </c>
@@ -8825,7 +8824,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B77" s="29" t="s">
         <v>21</v>
       </c>
@@ -8866,7 +8865,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B78" s="29" t="s">
         <v>21</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B79" s="29" t="s">
         <v>21</v>
       </c>
@@ -8925,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B80" s="29" t="s">
         <v>21</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B81" s="29" t="s">
         <v>21</v>
       </c>
@@ -8967,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B82" s="29" t="s">
         <v>21</v>
       </c>
@@ -8988,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
@@ -9006,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="29" customFormat="1">
       <c r="B84" s="29" t="s">
         <v>21</v>
       </c>
@@ -9027,7 +9026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="29" customFormat="1">
       <c r="B85" s="29" t="s">
         <v>21</v>
       </c>
@@ -9048,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="29" customFormat="1">
       <c r="B86" s="29" t="s">
         <v>21</v>
       </c>
@@ -9069,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="44" customFormat="1">
       <c r="A87" s="44" t="b">
         <v>1</v>
       </c>
@@ -9086,7 +9085,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="38" customFormat="1" ht="15">
       <c r="B88" s="29" t="s">
         <v>21</v>
       </c>
@@ -9127,7 +9126,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="38" customFormat="1" ht="15">
       <c r="B89" s="29" t="s">
         <v>21</v>
       </c>
@@ -9168,7 +9167,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20">
       <c r="B90" s="30" t="s">
         <v>21</v>
       </c>
@@ -9191,7 +9190,7 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="15">
       <c r="A91" s="47" t="b">
         <v>1</v>
       </c>
@@ -9221,7 +9220,7 @@
       <c r="Q91" s="44"/>
       <c r="R91" s="44"/>
     </row>
-    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A92" s="38"/>
       <c r="B92" s="29" t="s">
         <v>21</v>
@@ -9264,7 +9263,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A93" s="48"/>
       <c r="B93" s="29" t="s">
         <v>21</v>
@@ -9306,7 +9305,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A94" s="48"/>
       <c r="B94" s="29" t="s">
         <v>21</v>
@@ -9349,7 +9348,7 @@
       </c>
       <c r="T94" s="30"/>
     </row>
-    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="15">
       <c r="A95" s="47" t="b">
         <v>1</v>
       </c>
@@ -9379,7 +9378,7 @@
       <c r="Q95" s="44"/>
       <c r="R95" s="44"/>
     </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="15">
       <c r="A96" s="38"/>
       <c r="B96" s="29" t="s">
         <v>21</v>
@@ -9422,7 +9421,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="15">
       <c r="A97" s="48"/>
       <c r="B97" s="29" t="s">
         <v>21</v>
@@ -9464,7 +9463,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="15">
       <c r="A98" s="48"/>
       <c r="B98" s="29" t="s">
         <v>21</v>
@@ -9506,7 +9505,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="44" t="b">
         <v>1</v>
       </c>
@@ -9523,7 +9522,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" s="54" customFormat="1">
       <c r="B100" s="54" t="s">
         <v>21</v>
       </c>
@@ -9564,7 +9563,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B101" s="29" t="s">
         <v>21</v>
       </c>
@@ -9605,7 +9604,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" s="35" customFormat="1">
       <c r="A102" s="35" t="b">
         <v>1</v>
       </c>
@@ -9613,10 +9612,10 @@
         <v>750</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E102" s="35" t="s">
         <v>231</v>
@@ -9624,400 +9623,400 @@
       <c r="H102" s="36"/>
       <c r="I102" s="36"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18">
       <c r="F103" s="61"/>
       <c r="I103" s="30"/>
       <c r="J103" s="30"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18">
       <c r="F104" s="45"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18">
       <c r="F105" s="45"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18">
       <c r="F106" s="45"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18">
       <c r="F107" s="45"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18">
       <c r="F108" s="45"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18">
       <c r="F109" s="45"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18">
       <c r="F110" s="45"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18">
       <c r="F111" s="45"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18">
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10">
       <c r="I113" s="30"/>
       <c r="J113" s="30"/>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10">
       <c r="I114" s="30"/>
       <c r="J114" s="30"/>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10">
       <c r="I115" s="30"/>
       <c r="J115" s="30"/>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10">
       <c r="I116" s="30"/>
       <c r="J116" s="30"/>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:10">
       <c r="I117" s="30"/>
       <c r="J117" s="30"/>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:10">
       <c r="I118" s="30"/>
       <c r="J118" s="30"/>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:10">
       <c r="I119" s="30"/>
       <c r="J119" s="30"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:10">
       <c r="I120" s="30"/>
       <c r="J120" s="30"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:10">
       <c r="I121" s="30"/>
       <c r="J121" s="30"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:10">
       <c r="I122" s="30"/>
       <c r="J122" s="30"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:10">
       <c r="I123" s="30"/>
       <c r="J123" s="30"/>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:10">
       <c r="I124" s="30"/>
       <c r="J124" s="30"/>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:10">
       <c r="I125" s="30"/>
       <c r="J125" s="30"/>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:10">
       <c r="I126" s="30"/>
       <c r="J126" s="30"/>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:10">
       <c r="I127" s="30"/>
       <c r="J127" s="30"/>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:10">
       <c r="I128" s="30"/>
       <c r="J128" s="30"/>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:10">
       <c r="I129" s="30"/>
       <c r="J129" s="30"/>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:10">
       <c r="I130" s="30"/>
       <c r="J130" s="30"/>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:10">
       <c r="I131" s="30"/>
       <c r="J131" s="30"/>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:10">
       <c r="I132" s="30"/>
       <c r="J132" s="30"/>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:10">
       <c r="I133" s="30"/>
       <c r="J133" s="30"/>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:10">
       <c r="I134" s="30"/>
       <c r="J134" s="30"/>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:10">
       <c r="I135" s="30"/>
       <c r="J135" s="30"/>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:10">
       <c r="I136" s="30"/>
       <c r="J136" s="30"/>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:10">
       <c r="I137" s="30"/>
       <c r="J137" s="30"/>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:10">
       <c r="I138" s="30"/>
       <c r="J138" s="30"/>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:10">
       <c r="I139" s="30"/>
       <c r="J139" s="30"/>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:10">
       <c r="I140" s="30"/>
       <c r="J140" s="30"/>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:10">
       <c r="I141" s="30"/>
       <c r="J141" s="30"/>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:10">
       <c r="I142" s="30"/>
       <c r="J142" s="30"/>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:10">
       <c r="I143" s="30"/>
       <c r="J143" s="30"/>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:10">
       <c r="I144" s="30"/>
       <c r="J144" s="30"/>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:10">
       <c r="I145" s="30"/>
       <c r="J145" s="30"/>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:10">
       <c r="I146" s="30"/>
       <c r="J146" s="30"/>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:10">
       <c r="I147" s="30"/>
       <c r="J147" s="30"/>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:10">
       <c r="I148" s="30"/>
       <c r="J148" s="30"/>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:10">
       <c r="I149" s="30"/>
       <c r="J149" s="30"/>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:10">
       <c r="I150" s="30"/>
       <c r="J150" s="30"/>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:10">
       <c r="I151" s="30"/>
       <c r="J151" s="30"/>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:10">
       <c r="I152" s="30"/>
       <c r="J152" s="30"/>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:10">
       <c r="I153" s="30"/>
       <c r="J153" s="30"/>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:10">
       <c r="I154" s="30"/>
       <c r="J154" s="30"/>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:10">
       <c r="I155" s="30"/>
       <c r="J155" s="30"/>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:10">
       <c r="I156" s="30"/>
       <c r="J156" s="30"/>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:10">
       <c r="I157" s="30"/>
       <c r="J157" s="30"/>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:10">
       <c r="I158" s="30"/>
       <c r="J158" s="30"/>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:10">
       <c r="I159" s="30"/>
       <c r="J159" s="30"/>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:10">
       <c r="I160" s="30"/>
       <c r="J160" s="30"/>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:10">
       <c r="I161" s="30"/>
       <c r="J161" s="30"/>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:10">
       <c r="I162" s="30"/>
       <c r="J162" s="30"/>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:10">
       <c r="I163" s="30"/>
       <c r="J163" s="30"/>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:10">
       <c r="I164" s="30"/>
       <c r="J164" s="30"/>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:10">
       <c r="I165" s="30"/>
       <c r="J165" s="30"/>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:10">
       <c r="I166" s="30"/>
       <c r="J166" s="30"/>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:10">
       <c r="I167" s="30"/>
       <c r="J167" s="30"/>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:10">
       <c r="I168" s="30"/>
       <c r="J168" s="30"/>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:10">
       <c r="I169" s="30"/>
       <c r="J169" s="30"/>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:10">
       <c r="I170" s="30"/>
       <c r="J170" s="30"/>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:10">
       <c r="I171" s="30"/>
       <c r="J171" s="30"/>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:10">
       <c r="I172" s="30"/>
       <c r="J172" s="30"/>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:10">
       <c r="I173" s="30"/>
       <c r="J173" s="30"/>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:10">
       <c r="I174" s="30"/>
       <c r="J174" s="30"/>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:10">
       <c r="I175" s="30"/>
       <c r="J175" s="30"/>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:10">
       <c r="I176" s="30"/>
       <c r="J176" s="30"/>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:10">
       <c r="I177" s="30"/>
       <c r="J177" s="30"/>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:10">
       <c r="I178" s="30"/>
       <c r="J178" s="30"/>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:10">
       <c r="I179" s="30"/>
       <c r="J179" s="30"/>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:10">
       <c r="I180" s="30"/>
       <c r="J180" s="30"/>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:10">
       <c r="I181" s="30"/>
       <c r="J181" s="30"/>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:10">
       <c r="I182" s="30"/>
       <c r="J182" s="30"/>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:10">
       <c r="I183" s="30"/>
       <c r="J183" s="30"/>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:10">
       <c r="I184" s="30"/>
       <c r="J184" s="30"/>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:10">
       <c r="I185" s="30"/>
       <c r="J185" s="30"/>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:10">
       <c r="I186" s="30"/>
       <c r="J186" s="30"/>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:10">
       <c r="I187" s="30"/>
       <c r="J187" s="30"/>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:10">
       <c r="I188" s="30"/>
       <c r="J188" s="30"/>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:10">
       <c r="I189" s="30"/>
       <c r="J189" s="30"/>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:10">
       <c r="I190" s="30"/>
       <c r="J190" s="30"/>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:10">
       <c r="I191" s="30"/>
       <c r="J191" s="30"/>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:10">
       <c r="I192" s="30"/>
       <c r="J192" s="30"/>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:10">
       <c r="I193" s="30"/>
       <c r="J193" s="30"/>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:10">
       <c r="I194" s="30"/>
       <c r="J194" s="30"/>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:10">
       <c r="I195" s="30"/>
       <c r="J195" s="30"/>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:10">
       <c r="I196" s="30"/>
       <c r="J196" s="30"/>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:10">
       <c r="I197" s="30"/>
       <c r="J197" s="30"/>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:10">
       <c r="I198" s="30"/>
       <c r="J198" s="30"/>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:10">
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
@@ -10027,7 +10026,6 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10042,25 +10040,25 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="30" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="30" customWidth="1"/>
     <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="30" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="30" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="30"/>
+    <col min="12" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="58"/>
       <c r="C1" s="5"/>
@@ -10076,7 +10074,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
@@ -10114,7 +10112,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
@@ -10153,7 +10151,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
         <v>628</v>
       </c>
@@ -10182,14 +10180,14 @@
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10211,7 +10209,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
@@ -10240,14 +10238,14 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="29" t="s">
         <v>665</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10268,14 +10266,14 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="29" t="s">
         <v>666</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10296,14 +10294,14 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="29" t="s">
         <v>667</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10324,14 +10322,14 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="29" t="s">
         <v>668</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10352,14 +10350,14 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="29" t="s">
         <v>669</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10380,14 +10378,14 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="29" t="s">
         <v>670</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10408,14 +10406,14 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="29" t="s">
         <v>690</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10431,14 +10429,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
         <v>691</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10454,14 +10452,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="29" t="s">
         <v>692</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10477,13 +10475,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="29" t="s">
         <v>693</v>
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>
@@ -10498,180 +10496,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="29"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="29"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="29"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="29"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="29"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="29"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="29"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="29"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="29"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="29"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="29"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="29"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="29"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="29"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="29"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="29"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="29"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="29"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="29"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="29"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="29"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="29"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="29"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="29"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="29"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="29"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="29"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="29"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="29"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="29"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="29"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="29"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="29"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="29"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="29"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10688,19 +10685,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10719,7 +10716,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10740,7 +10737,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10763,7 +10760,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10786,7 +10783,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10809,7 +10806,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10832,7 +10829,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10855,7 +10852,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10878,7 +10875,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10901,7 +10898,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10924,7 +10921,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10943,7 +10940,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -10964,7 +10961,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -10987,7 +10984,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11010,7 +11007,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11033,7 +11030,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11056,7 +11053,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11079,7 +11076,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11102,7 +11099,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11125,7 +11122,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11148,7 +11145,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11167,7 +11164,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11190,7 +11187,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11213,7 +11210,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11236,7 +11233,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11259,7 +11256,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11282,7 +11279,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11305,7 +11302,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11328,7 +11325,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11351,7 +11348,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11374,7 +11371,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11393,7 +11390,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11414,7 +11411,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11437,7 +11434,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11460,7 +11457,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11483,7 +11480,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11506,7 +11503,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11529,7 +11526,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11552,7 +11549,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11575,7 +11572,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11598,7 +11595,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11617,7 +11614,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11638,7 +11635,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11661,7 +11658,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11684,7 +11681,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11707,7 +11704,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11730,7 +11727,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11753,7 +11750,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11776,7 +11773,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11799,7 +11796,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11822,7 +11819,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11841,7 +11838,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11862,7 +11859,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11885,7 +11882,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11908,7 +11905,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11931,7 +11928,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11954,7 +11951,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -11977,7 +11974,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12000,7 +11997,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12023,7 +12020,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12046,7 +12043,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12065,7 +12062,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12086,7 +12083,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12111,7 +12108,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12134,7 +12131,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12157,7 +12154,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12180,7 +12177,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12203,7 +12200,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12226,7 +12223,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12249,7 +12246,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12272,7 +12269,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12295,7 +12292,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12314,7 +12311,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12335,7 +12332,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12358,7 +12355,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12383,7 +12380,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12406,7 +12403,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12429,7 +12426,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12452,7 +12449,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12475,7 +12472,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12498,7 +12495,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12521,7 +12518,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12544,7 +12541,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12567,7 +12564,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12590,7 +12587,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12613,7 +12610,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12632,7 +12629,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12655,7 +12652,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12678,7 +12675,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12701,7 +12698,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12724,7 +12721,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12747,7 +12744,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12770,7 +12767,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12793,7 +12790,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12816,7 +12813,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12839,7 +12836,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12862,7 +12859,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12881,7 +12878,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12906,7 +12903,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12925,7 +12922,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12946,7 +12943,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12971,7 +12968,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -12990,7 +12987,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13013,7 +13010,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13038,7 +13035,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13061,7 +13058,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13082,7 +13079,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13101,7 +13098,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13126,7 +13123,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13149,7 +13146,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13172,7 +13169,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13195,7 +13192,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13218,7 +13215,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13241,7 +13238,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13264,7 +13261,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13283,7 +13280,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13306,7 +13303,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13329,7 +13326,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13352,7 +13349,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13371,7 +13368,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13394,7 +13391,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13417,7 +13414,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13440,7 +13437,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13463,7 +13460,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13486,7 +13483,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13509,7 +13506,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13528,7 +13525,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13553,7 +13550,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13576,7 +13573,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13599,7 +13596,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13622,7 +13619,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13645,7 +13642,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13668,7 +13665,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13691,7 +13688,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13714,7 +13711,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13737,7 +13734,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13756,7 +13753,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13781,7 +13778,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13802,7 +13799,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13825,7 +13822,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13848,7 +13845,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13871,7 +13868,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13894,7 +13891,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13917,7 +13914,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13940,7 +13937,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13963,7 +13960,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -13986,7 +13983,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14009,7 +14006,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14032,7 +14029,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14055,7 +14052,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14078,7 +14075,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14097,7 +14094,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14120,7 +14117,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14139,7 +14136,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14162,7 +14159,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14185,7 +14182,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14204,7 +14201,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14229,7 +14226,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14252,7 +14249,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14275,7 +14272,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14298,7 +14295,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14321,7 +14318,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14344,7 +14341,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14367,7 +14364,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14390,7 +14387,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14413,7 +14410,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14436,7 +14433,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14455,7 +14452,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14480,7 +14477,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14503,7 +14500,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14526,7 +14523,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14549,7 +14546,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14572,7 +14569,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14595,7 +14592,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14618,7 +14615,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14641,7 +14638,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14664,7 +14661,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14687,7 +14684,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14706,7 +14703,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14729,7 +14726,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14752,7 +14749,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14775,7 +14772,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14798,7 +14795,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14817,7 +14814,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14840,7 +14837,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14863,7 +14860,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14886,7 +14883,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14909,7 +14906,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14928,7 +14925,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14949,7 +14946,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14972,7 +14969,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -14991,7 +14988,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15014,7 +15011,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15039,7 +15036,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15060,7 +15057,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15085,7 +15082,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15110,7 +15107,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15129,7 +15126,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15154,7 +15151,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15177,7 +15174,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15200,7 +15197,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15223,7 +15220,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15246,7 +15243,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15269,7 +15266,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15292,7 +15289,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15315,7 +15312,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15338,7 +15335,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15357,7 +15354,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15382,7 +15379,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15405,7 +15402,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15428,7 +15425,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15451,7 +15448,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15474,7 +15471,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15497,7 +15494,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15520,7 +15517,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15543,7 +15540,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15566,7 +15563,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15585,7 +15582,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15606,7 +15603,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15629,7 +15626,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15652,7 +15649,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15675,7 +15672,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15698,7 +15695,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15721,7 +15718,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15744,7 +15741,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15767,7 +15764,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15790,7 +15787,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15813,7 +15810,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15836,7 +15833,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15859,7 +15856,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15882,7 +15879,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15905,7 +15902,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15928,7 +15925,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15951,7 +15948,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15970,7 +15967,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -15991,7 +15988,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16014,7 +16011,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16037,7 +16034,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16060,7 +16057,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16083,7 +16080,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16106,7 +16103,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16129,7 +16126,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16152,7 +16149,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16175,7 +16172,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16198,7 +16195,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16221,7 +16218,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16244,7 +16241,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16267,7 +16264,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16290,7 +16287,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16313,7 +16310,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16336,7 +16333,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16355,7 +16352,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16380,7 +16377,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16403,7 +16400,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16426,7 +16423,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16449,7 +16446,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16472,7 +16469,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16491,7 +16488,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16516,7 +16513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16539,7 +16536,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16558,7 +16555,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16577,7 +16574,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16596,7 +16593,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16617,7 +16614,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16640,7 +16637,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16663,7 +16660,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16686,7 +16683,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16709,7 +16706,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16732,7 +16729,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16755,7 +16752,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16778,7 +16775,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16801,7 +16798,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16824,7 +16821,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16847,7 +16844,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16866,7 +16863,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16889,7 +16886,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16908,7 +16905,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16933,7 +16930,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16956,7 +16953,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -16979,7 +16976,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17002,7 +16999,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17025,7 +17022,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17048,7 +17045,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17071,7 +17068,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17094,7 +17091,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17117,7 +17114,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17140,7 +17137,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17163,7 +17160,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17182,7 +17179,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17205,7 +17202,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17224,7 +17221,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17245,7 +17242,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17264,7 +17261,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17285,7 +17282,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17304,7 +17301,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17325,7 +17322,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17344,7 +17341,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17367,7 +17364,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17386,7 +17383,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17411,7 +17408,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17434,7 +17431,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17457,7 +17454,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17480,7 +17477,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17503,7 +17500,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17526,7 +17523,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17549,7 +17546,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17572,7 +17569,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17595,7 +17592,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17614,7 +17611,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17637,7 +17634,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17660,7 +17657,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17683,7 +17680,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17706,7 +17703,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17725,7 +17722,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17748,7 +17745,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17771,7 +17768,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17796,7 +17793,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17815,7 +17812,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17840,7 +17837,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17863,7 +17860,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17882,7 +17879,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17903,7 +17900,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17924,7 +17921,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17947,7 +17944,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17966,7 +17963,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -17985,7 +17982,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18010,7 +18007,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18035,7 +18032,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18049,7 +18046,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18072,7 +18069,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18092,7 +18089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18112,7 +18109,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18132,7 +18129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18149,7 +18146,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18172,7 +18169,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18195,7 +18192,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18209,7 +18206,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18232,7 +18229,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18255,7 +18252,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18275,7 +18272,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18295,7 +18292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18312,7 +18309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18338,7 +18335,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18367,7 +18364,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18406,7 +18403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18420,7 +18417,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18440,7 +18437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18454,7 +18451,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18474,7 +18471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18494,7 +18491,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18514,7 +18511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18534,7 +18531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18554,7 +18551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18574,7 +18571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18594,7 +18591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18614,7 +18611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18634,7 +18631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18648,7 +18645,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18668,7 +18665,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18688,7 +18685,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18704,7 +18701,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18730,7 +18727,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18771,7 +18768,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18785,7 +18782,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18805,7 +18802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18819,7 +18816,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18841,7 +18838,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18858,17 +18854,17 @@
       <selection activeCell="O17" sqref="O17:Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -18879,7 +18875,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="29" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>585</v>
       </c>
@@ -18893,7 +18889,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="29" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>588</v>
       </c>
@@ -18907,7 +18903,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="29" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>590</v>
       </c>
@@ -18921,7 +18917,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="29" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>592</v>
       </c>
@@ -18935,7 +18931,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="29" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>594</v>
       </c>
@@ -18949,7 +18945,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="29" customFormat="1">
       <c r="A7" s="29" t="s">
         <v>438</v>
       </c>
@@ -18963,7 +18959,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="29" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
@@ -18977,7 +18973,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="29" customFormat="1">
       <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
@@ -18991,7 +18987,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>565</v>
       </c>
@@ -19005,7 +19001,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>452</v>
       </c>
@@ -19019,7 +19015,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -19030,8 +19026,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="29" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -19057,7 +19053,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>544</v>
       </c>
@@ -19098,7 +19094,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19139,7 +19135,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>538</v>
       </c>
@@ -19171,7 +19167,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>546</v>
       </c>
@@ -19203,7 +19199,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>545</v>
       </c>
@@ -19232,7 +19228,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>547</v>
       </c>
@@ -19264,7 +19260,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>548</v>
       </c>
@@ -19284,7 +19280,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>630</v>
       </c>
@@ -19307,7 +19303,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>554</v>
       </c>
@@ -19318,7 +19314,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>535</v>
       </c>
@@ -19326,7 +19322,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>537</v>
       </c>
@@ -19339,7 +19335,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
